--- a/simulation_data/iterative_algorithm/i_error_level_9_percent_water_99.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_9_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>92.07488569828782</v>
+        <v>87.52943998151261</v>
       </c>
       <c r="D2" t="n">
-        <v>26.17284190751241</v>
+        <v>18.17579722224475</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>92.06593454187629</v>
+        <v>90.44038803836246</v>
       </c>
       <c r="D3" t="n">
-        <v>23.4498122155544</v>
+        <v>19.41330594812578</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>89.81757700288031</v>
+        <v>91.95987935990986</v>
       </c>
       <c r="D4" t="n">
-        <v>20.77414104658824</v>
+        <v>21.33065225999423</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>89.79201673136581</v>
+        <v>81.48156784854277</v>
       </c>
       <c r="D5" t="n">
-        <v>21.50966480000663</v>
+        <v>23.73699027886535</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>80.70775159114196</v>
+        <v>83.82487026749568</v>
       </c>
       <c r="D6" t="n">
-        <v>24.66866517169829</v>
+        <v>21.92255471607106</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>82.56107435566022</v>
+        <v>82.94511682549151</v>
       </c>
       <c r="D7" t="n">
-        <v>24.25629628824825</v>
+        <v>22.87015360491093</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>80.65198369522945</v>
+        <v>83.41038511000346</v>
       </c>
       <c r="D8" t="n">
-        <v>23.2846449950475</v>
+        <v>21.32886080636269</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.75217159650038</v>
+        <v>79.81485339843272</v>
       </c>
       <c r="D9" t="n">
-        <v>26.65762072105488</v>
+        <v>21.59877655610093</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>83.89141204544445</v>
+        <v>82.99931684492262</v>
       </c>
       <c r="D10" t="n">
-        <v>22.55626934909231</v>
+        <v>21.60418809519329</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.1823885785213</v>
+        <v>80.10045151031728</v>
       </c>
       <c r="D11" t="n">
-        <v>21.50302216750482</v>
+        <v>22.59393989976376</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>81.99962503004843</v>
+        <v>78.80286056102524</v>
       </c>
       <c r="D12" t="n">
-        <v>21.02400775297112</v>
+        <v>24.62982999051261</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>75.69794786835394</v>
+        <v>79.72108000638895</v>
       </c>
       <c r="D13" t="n">
-        <v>21.27363622318381</v>
+        <v>21.82094941885698</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>76.84631741433779</v>
+        <v>75.3323220506463</v>
       </c>
       <c r="D14" t="n">
-        <v>21.83356125184339</v>
+        <v>22.27496691063766</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.1203036628817</v>
+        <v>76.53578237162552</v>
       </c>
       <c r="D15" t="n">
-        <v>22.68948740400709</v>
+        <v>24.24635133938924</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.47300177672986</v>
+        <v>75.79231634020786</v>
       </c>
       <c r="D16" t="n">
-        <v>23.26582590858094</v>
+        <v>20.61259593043596</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>72.36883395852531</v>
+        <v>75.76131101442982</v>
       </c>
       <c r="D17" t="n">
-        <v>21.16354535957804</v>
+        <v>23.27053291337289</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.9552257594267</v>
+        <v>71.21781444040637</v>
       </c>
       <c r="D18" t="n">
-        <v>25.68343214267405</v>
+        <v>21.70308756162781</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.80959048009132</v>
+        <v>75.89615178977105</v>
       </c>
       <c r="D19" t="n">
-        <v>23.73967299969634</v>
+        <v>21.59190924480146</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.14535989357168</v>
+        <v>70.52855367324452</v>
       </c>
       <c r="D20" t="n">
-        <v>24.55976734105427</v>
+        <v>20.4273078933969</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>73.026237899047</v>
+        <v>69.81127841532459</v>
       </c>
       <c r="D21" t="n">
-        <v>23.9057561396542</v>
+        <v>22.10407315096371</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.0409367995331</v>
+        <v>67.7398797363544</v>
       </c>
       <c r="D22" t="n">
-        <v>24.0932699948231</v>
+        <v>22.34590592455378</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.74218819756287</v>
+        <v>66.56461381298806</v>
       </c>
       <c r="D23" t="n">
-        <v>23.04304766585995</v>
+        <v>25.46515974923781</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.34872659528767</v>
+        <v>67.85457313456772</v>
       </c>
       <c r="D24" t="n">
-        <v>24.48377279696134</v>
+        <v>24.45128779445792</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>70.02224255826722</v>
+        <v>63.72665135925273</v>
       </c>
       <c r="D25" t="n">
-        <v>23.46682933926853</v>
+        <v>21.39664670597982</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.76206663963967</v>
+        <v>65.73582987977379</v>
       </c>
       <c r="D26" t="n">
-        <v>21.00916655598677</v>
+        <v>20.4618710112774</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>61.02434428041653</v>
+        <v>65.42010202505088</v>
       </c>
       <c r="D27" t="n">
-        <v>21.52427343564746</v>
+        <v>21.42401750303687</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.83167907776725</v>
+        <v>61.30458044059256</v>
       </c>
       <c r="D28" t="n">
-        <v>22.22569875261708</v>
+        <v>23.89614752243566</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>67.61928998031699</v>
+        <v>65.94997139608986</v>
       </c>
       <c r="D29" t="n">
-        <v>21.78306041144359</v>
+        <v>24.82647702714005</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>60.62385443578169</v>
+        <v>63.3040890978831</v>
       </c>
       <c r="D30" t="n">
-        <v>21.10608223036738</v>
+        <v>24.14221307188913</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>58.42069228760052</v>
+        <v>58.31541088478558</v>
       </c>
       <c r="D31" t="n">
-        <v>20.43241159755931</v>
+        <v>25.11838206665688</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>56.99425956889538</v>
+        <v>61.266059654126</v>
       </c>
       <c r="D32" t="n">
-        <v>22.98842640926333</v>
+        <v>22.47695784149181</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>61.79708700195729</v>
+        <v>54.59788191624004</v>
       </c>
       <c r="D33" t="n">
-        <v>22.77045124486438</v>
+        <v>22.80812699490905</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>59.70680693581706</v>
+        <v>54.01281022600947</v>
       </c>
       <c r="D34" t="n">
-        <v>23.14411599119894</v>
+        <v>24.11849042326932</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.77964585295167</v>
+        <v>61.88008067216577</v>
       </c>
       <c r="D35" t="n">
-        <v>23.80806335507065</v>
+        <v>23.41671275568535</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.57427426673189</v>
+        <v>57.39359335407256</v>
       </c>
       <c r="D36" t="n">
-        <v>23.36205840928581</v>
+        <v>24.84604292598832</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.0928619186688</v>
+        <v>58.40637158425875</v>
       </c>
       <c r="D37" t="n">
-        <v>22.25406236672175</v>
+        <v>24.66295123649314</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>55.68898559586881</v>
+        <v>53.57863737303278</v>
       </c>
       <c r="D38" t="n">
-        <v>23.19808701805564</v>
+        <v>19.90658597018513</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>56.14339088195883</v>
+        <v>50.27798285908798</v>
       </c>
       <c r="D39" t="n">
-        <v>21.08605972100932</v>
+        <v>21.39854172698831</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.96038100286833</v>
+        <v>54.22875050571443</v>
       </c>
       <c r="D40" t="n">
-        <v>20.75815470259414</v>
+        <v>22.66672809639346</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.93339725787131</v>
+        <v>49.30621793349962</v>
       </c>
       <c r="D41" t="n">
-        <v>28.05570333060221</v>
+        <v>22.88752847280596</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>51.66512201710159</v>
+        <v>49.69073162416492</v>
       </c>
       <c r="D42" t="n">
-        <v>20.17393143154934</v>
+        <v>24.83597257641891</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>45.39954113825277</v>
+        <v>42.11053282540574</v>
       </c>
       <c r="D43" t="n">
-        <v>22.65626508281895</v>
+        <v>21.83767199796665</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.29334334653336</v>
+        <v>47.17758642557143</v>
       </c>
       <c r="D44" t="n">
-        <v>24.57237530523637</v>
+        <v>21.43086311376879</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.20525649634111</v>
+        <v>45.31291664069131</v>
       </c>
       <c r="D45" t="n">
-        <v>21.59463607998323</v>
+        <v>22.09748497025168</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>43.34135599053391</v>
+        <v>47.04119368748665</v>
       </c>
       <c r="D46" t="n">
-        <v>24.96696621276628</v>
+        <v>21.23063302100269</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>42.2319693648998</v>
+        <v>41.98758416238163</v>
       </c>
       <c r="D47" t="n">
-        <v>21.08156951915905</v>
+        <v>21.65842495085933</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>42.92946387209088</v>
+        <v>45.76496530315048</v>
       </c>
       <c r="D48" t="n">
-        <v>24.041106475404</v>
+        <v>23.26931756196172</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>38.59430657651133</v>
+        <v>39.41775824361412</v>
       </c>
       <c r="D49" t="n">
-        <v>22.82123664668869</v>
+        <v>24.21248250451472</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>45.15321467646131</v>
+        <v>40.02264941973976</v>
       </c>
       <c r="D50" t="n">
-        <v>20.66471493989669</v>
+        <v>24.11579251124699</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>44.90725066318642</v>
+        <v>43.86042423374855</v>
       </c>
       <c r="D51" t="n">
-        <v>25.64670007840249</v>
+        <v>25.80674736848658</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.08122688931903</v>
+        <v>41.18352098901106</v>
       </c>
       <c r="D52" t="n">
-        <v>19.68235224846266</v>
+        <v>21.3085632796102</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>37.07937697184066</v>
+        <v>41.54465976813144</v>
       </c>
       <c r="D53" t="n">
-        <v>22.33533713194348</v>
+        <v>20.06982537959803</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.31473536898481</v>
+        <v>36.15040533930594</v>
       </c>
       <c r="D54" t="n">
-        <v>25.6005803141973</v>
+        <v>22.61356441598539</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.7005238891805</v>
+        <v>31.85450561464372</v>
       </c>
       <c r="D55" t="n">
-        <v>25.53929004503063</v>
+        <v>24.41166239534166</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>34.52619177471141</v>
+        <v>36.61425038709714</v>
       </c>
       <c r="D56" t="n">
-        <v>22.53749174670895</v>
+        <v>24.64285052737834</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.08391585292091</v>
+        <v>36.30438232664213</v>
       </c>
       <c r="D57" t="n">
-        <v>24.38917083972208</v>
+        <v>26.40504815273072</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>30.37230496331896</v>
+        <v>31.97891824228151</v>
       </c>
       <c r="D58" t="n">
-        <v>22.96719395776852</v>
+        <v>23.12848651422898</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>31.97001928972801</v>
+        <v>27.95958583130246</v>
       </c>
       <c r="D59" t="n">
-        <v>24.01278926702606</v>
+        <v>22.15741608239237</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.09792605949494</v>
+        <v>34.53594248086613</v>
       </c>
       <c r="D60" t="n">
-        <v>21.8016672960289</v>
+        <v>21.62087731515155</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>29.33759975901204</v>
+        <v>34.51244296825703</v>
       </c>
       <c r="D61" t="n">
-        <v>25.90789824885147</v>
+        <v>20.90021219341469</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>28.63665111119072</v>
+        <v>31.27667039160649</v>
       </c>
       <c r="D62" t="n">
-        <v>24.08969049472239</v>
+        <v>22.38399407274832</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.81444798110328</v>
+        <v>27.91885056232437</v>
       </c>
       <c r="D63" t="n">
-        <v>24.73663610087444</v>
+        <v>24.668590435889</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>29.67202859682165</v>
+        <v>28.20300261999421</v>
       </c>
       <c r="D64" t="n">
-        <v>23.43727226611837</v>
+        <v>25.08194268642713</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.07424912746202</v>
+        <v>27.11827460067857</v>
       </c>
       <c r="D65" t="n">
-        <v>21.796775742879</v>
+        <v>22.38657811722913</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>27.12316612200339</v>
+        <v>22.77048134665408</v>
       </c>
       <c r="D66" t="n">
-        <v>25.44900480895889</v>
+        <v>24.2032413499782</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.96263160688458</v>
+        <v>23.06360583547933</v>
       </c>
       <c r="D67" t="n">
-        <v>24.36329121199425</v>
+        <v>23.23577292407542</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.88261489314869</v>
+        <v>23.20289992174051</v>
       </c>
       <c r="D68" t="n">
-        <v>22.15275291383518</v>
+        <v>21.10908391379261</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.26955465263833</v>
+        <v>22.39993287645254</v>
       </c>
       <c r="D69" t="n">
-        <v>24.21830271604375</v>
+        <v>26.30680920460812</v>
       </c>
     </row>
   </sheetData>
